--- a/ValueSet-questionnaire-unknown-status-vs.xlsx
+++ b/ValueSet-questionnaire-unknown-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T16:40:30+00:00</t>
+    <t>2022-04-11T16:52:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-questionnaire-unknown-status-vs.xlsx
+++ b/ValueSet-questionnaire-unknown-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T16:52:02+00:00</t>
+    <t>2022-04-11T17:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-questionnaire-unknown-status-vs.xlsx
+++ b/ValueSet-questionnaire-unknown-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T17:02:35+00:00</t>
+    <t>2022-04-11T17:09:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-questionnaire-unknown-status-vs.xlsx
+++ b/ValueSet-questionnaire-unknown-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T17:09:19+00:00</t>
+    <t>2022-04-11T17:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-questionnaire-unknown-status-vs.xlsx
+++ b/ValueSet-questionnaire-unknown-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T17:19:31+00:00</t>
+    <t>2022-04-11T17:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-questionnaire-unknown-status-vs.xlsx
+++ b/ValueSet-questionnaire-unknown-status-vs.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from S37 Questionnair" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from CodeSystem _ Que" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Questionnaire Unknown Status</t>
+    <t>ValueSet : Questionnaire Unknown Status</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T17:46:13+00:00</t>
+    <t>2022-04-11T17:58:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>ValueSet : Questionnaire Unknown Status ValueSet</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -349,27 +352,27 @@
         <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -391,7 +394,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>21</v>
@@ -399,34 +402,34 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-questionnaire-unknown-status-vs.xlsx
+++ b/ValueSet-questionnaire-unknown-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T17:58:20+00:00</t>
+    <t>2022-04-11T18:04:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-questionnaire-unknown-status-vs.xlsx
+++ b/ValueSet-questionnaire-unknown-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T18:04:55+00:00</t>
+    <t>2022-04-11T18:10:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-questionnaire-unknown-status-vs.xlsx
+++ b/ValueSet-questionnaire-unknown-status-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from CodeSystem _ Que" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from CodeSystems _ Qu" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T18:10:40+00:00</t>
+    <t>2022-04-11T18:53:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-questionnaire-unknown-status-vs.xlsx
+++ b/ValueSet-questionnaire-unknown-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T18:53:32+00:00</t>
+    <t>2022-04-11T19:03:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-questionnaire-unknown-status-vs.xlsx
+++ b/ValueSet-questionnaire-unknown-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T19:03:21+00:00</t>
+    <t>2022-04-11T20:24:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-questionnaire-unknown-status-vs.xlsx
+++ b/ValueSet-questionnaire-unknown-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T20:24:48+00:00</t>
+    <t>2022-04-11T20:32:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-questionnaire-unknown-status-vs.xlsx
+++ b/ValueSet-questionnaire-unknown-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T20:32:47+00:00</t>
+    <t>2022-04-11T20:39:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-questionnaire-unknown-status-vs.xlsx
+++ b/ValueSet-questionnaire-unknown-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T20:39:05+00:00</t>
+    <t>2022-04-11T20:51:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-questionnaire-unknown-status-vs.xlsx
+++ b/ValueSet-questionnaire-unknown-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T20:51:46+00:00</t>
+    <t>2022-04-12T16:41:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-questionnaire-unknown-status-vs.xlsx
+++ b/ValueSet-questionnaire-unknown-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T16:41:17+00:00</t>
+    <t>2022-04-12T16:48:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-questionnaire-unknown-status-vs.xlsx
+++ b/ValueSet-questionnaire-unknown-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T16:48:09+00:00</t>
+    <t>2022-04-12T16:55:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-questionnaire-unknown-status-vs.xlsx
+++ b/ValueSet-questionnaire-unknown-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T16:55:17+00:00</t>
+    <t>2022-04-12T16:59:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-questionnaire-unknown-status-vs.xlsx
+++ b/ValueSet-questionnaire-unknown-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T16:59:25+00:00</t>
+    <t>2022-04-12T17:07:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-questionnaire-unknown-status-vs.xlsx
+++ b/ValueSet-questionnaire-unknown-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T17:07:36+00:00</t>
+    <t>2022-04-12T17:18:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-questionnaire-unknown-status-vs.xlsx
+++ b/ValueSet-questionnaire-unknown-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T17:18:11+00:00</t>
+    <t>2022-04-12T17:29:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-questionnaire-unknown-status-vs.xlsx
+++ b/ValueSet-questionnaire-unknown-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T17:29:23+00:00</t>
+    <t>2022-04-12T17:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-questionnaire-unknown-status-vs.xlsx
+++ b/ValueSet-questionnaire-unknown-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-12T17:46:11+00:00</t>
+    <t>2022-04-12T17:49:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
